--- a/data/trans_dic/P5B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 11,64</t>
+          <t>1,29; 11,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,25</t>
+          <t>0,0; 6,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,7</t>
+          <t>0,0; 7,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,05</t>
+          <t>0,9; 10,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 13,49</t>
+          <t>2,08; 12,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,18</t>
+          <t>0,0; 5,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,11</t>
+          <t>0,0; 10,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,84</t>
+          <t>0,0; 8,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 9,81</t>
+          <t>2,68; 10,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,63</t>
+          <t>0,51; 4,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 7,05</t>
+          <t>0,7; 6,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,52</t>
+          <t>0,75; 6,66</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,76</t>
+          <t>1,75; 4,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,15</t>
+          <t>0,79; 3,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,65</t>
+          <t>0,21; 1,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,21</t>
+          <t>0,12; 1,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,08</t>
+          <t>2,41; 6,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,13</t>
+          <t>0,69; 3,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,94</t>
+          <t>1,31; 3,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 10,8</t>
+          <t>0,47; 11,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,72</t>
+          <t>2,45; 4,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,64</t>
+          <t>0,92; 2,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,28</t>
+          <t>0,9; 2,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,49</t>
+          <t>0,45; 5,15</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1144,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,04</t>
+          <t>0,52; 4,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,89</t>
+          <t>0,0; 4,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,47</t>
+          <t>0,46; 4,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,98</t>
+          <t>1,1; 6,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,58</t>
+          <t>0,95; 5,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,55</t>
+          <t>1,23; 7,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,15</t>
+          <t>1,23; 4,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,22</t>
+          <t>1,04; 4,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,51</t>
+          <t>0,23; 2,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,6</t>
+          <t>0,65; 3,24</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,43</t>
+          <t>1,99; 4,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,6</t>
+          <t>0,85; 2,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,0</t>
+          <t>0,53; 2,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,18</t>
+          <t>0,68; 2,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,55</t>
+          <t>2,53; 5,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,33</t>
+          <t>1,09; 3,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,84</t>
+          <t>1,06; 2,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 8,1</t>
+          <t>0,49; 7,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,4</t>
+          <t>2,62; 4,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,54</t>
+          <t>1,2; 2,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,11</t>
+          <t>0,94; 2,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,43</t>
+          <t>0,84; 4,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,2; 12,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 12,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,88; 9,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,89; 9,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 4,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 6,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,57; 6,68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>3,33%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 11,72</t>
+          <t>2,32; 6,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,45</t>
+          <t>0,65; 3,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,83</t>
+          <t>1,35; 4,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 10,95</t>
+          <t>0,51; 26,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 12,19</t>
+          <t>1,8; 4,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,78; 3,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,45</t>
+          <t>0,2; 1,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,23</t>
+          <t>0,11; 1,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 10,15</t>
+          <t>2,46; 4,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,39</t>
+          <t>0,86; 2,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,13</t>
+          <t>0,86; 2,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,66</t>
+          <t>0,48; 13,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>1,64%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,53%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>2,33%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,91</t>
+          <t>0,97; 5,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,18</t>
+          <t>1,4; 7,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,8</t>
+          <t>0; 0,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,29</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,12</t>
+          <t>0,52; 5,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,16</t>
+          <t>0,0; 3,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,89</t>
+          <t>0,46; 4,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 11,08</t>
+          <t>1,06; 6,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,79</t>
+          <t>1,05; 4,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,59</t>
+          <t>1,06; 4,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,35</t>
+          <t>0,24; 2,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,15</t>
+          <t>0,63; 3,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,64</t>
+          <t>2,59; 5,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,02</t>
+          <t>1,1; 3,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,44</t>
+          <t>1,02; 2,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,34</t>
+          <t>0,56; 19,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,79</t>
+          <t>1,86; 4,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,16</t>
+          <t>0,83; 2,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>0,57; 2,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,88</t>
+          <t>0,68; 2,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,44</t>
+          <t>2,53; 4,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,31</t>
+          <t>1,12; 2,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,21</t>
+          <t>0,98; 2,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,24</t>
+          <t>0,89; 9,54</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,55%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,31%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,99%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3,41%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 4,57</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 2,66</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 2,1</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 2,18</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 5,32</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 3,4</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 2,89</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 7,21</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 4,42</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 2,53</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 2,1</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 4,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
